--- a/individual_case_outputs/avey/399.xlsx
+++ b/individual_case_outputs/avey/399.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,7 +581,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>congestive heart failure</t>
+          <t>cardiomyopathy</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -694,11 +694,7 @@
           <t>chronic obstructive pulmonary disease</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>congestive heart failure</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>atrial fibrillation</t>
@@ -749,7 +745,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>congestive heart failure</t>
+          <t>asthma</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -791,11 +787,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>congestive heart failure</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>chronic obstructive pulmonary disease</t>
@@ -846,7 +838,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>copd</t>
+          <t>acute bronchitis</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -911,7 +903,7 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>copd</t>
+          <t>pulmonary embolism</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -970,14 +962,10 @@
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>pulmonary embolism</t>
-        </is>
-      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>congestive heart failure</t>
+          <t>diabetic ketoacidosis</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1026,7 +1014,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>diabetic ketoacidosis</t>
+          <t>obstructive sleep apnea</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
@@ -1063,7 +1051,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>obstructive sleep apnea</t>
+          <t>coronavirus disease 2019</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -1096,7 +1084,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>coronavirus disease 2019</t>
+          <t>atrial fibrillation</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -1129,7 +1117,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>atrial fibrillation</t>
+          <t>asthma</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -1195,7 +1183,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>copd</t>
+          <t>supraventricular tachycardia</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -1228,7 +1216,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>copd</t>
+          <t>bacterial pneumonia</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -1261,7 +1249,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>supraventricular tachycardia</t>
+          <t>systemic lupus erythematosus</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -1294,7 +1282,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>bacterial pneumonia</t>
+          <t>cerebral thrombosis</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
@@ -1327,7 +1315,7 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>systemic lupus erythematosus</t>
+          <t>gout</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -1360,7 +1348,7 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>cerebral thrombosis</t>
+          <t>nephrotic syndrome</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -1393,7 +1381,7 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>gout</t>
+          <t>transient ischemic attack</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -1426,7 +1414,7 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>nephrotic syndrome</t>
+          <t>peripheral vascular disease</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -1459,7 +1447,7 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>transient ischemic attack</t>
+          <t>aortic stenosis</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1492,7 +1480,7 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>peripheral vascular disease</t>
+          <t>mitral regurgitation</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1525,7 +1513,7 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>aortic stenosis</t>
+          <t>massive pulmonary embolism</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1558,7 +1546,7 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>mitral regurgitation</t>
+          <t>hypovolemic shock</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1591,7 +1579,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>massive pulmonary embolism</t>
+          <t>polyarteritis nodosa</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1624,7 +1612,7 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>hypovolemic shock</t>
+          <t>high blood pressure</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1657,7 +1645,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>polyarteritis nodosa</t>
+          <t>scleroderma</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1690,7 +1678,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>high blood pressure</t>
+          <t>eosinophilic granulomatosis with polyaniitis</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1723,7 +1711,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>scleroderma</t>
+          <t>cholesterol embolism</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -1756,7 +1744,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>eosinophilic granulomatosis with polyaniitis</t>
+          <t>polycythemia vera</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -1789,7 +1777,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>cholesterol embolism</t>
+          <t>diabetic cardiomyopathy</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -1822,7 +1810,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>polycythemia vera</t>
+          <t>pheochromocytoma</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -1833,72 +1821,6 @@
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>diabetic cardiomyopathy</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>pheochromocytoma</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
